--- a/Lab/Matching/google_spreadsheet.xlsx
+++ b/Lab/Matching/google_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference-1/Lab/Matching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1015A325-1A8F-F047-938C-6AA7C976B4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF859CC2-C9D5-9744-9D1C-9041AEA0300E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17820" yWindow="3260" windowWidth="27640" windowHeight="16940" xr2:uid="{D9191F94-6E8F-2E46-A74F-9A674A41E711}"/>
   </bookViews>
